--- a/cc_revenue_prediction.xlsx
+++ b/cc_revenue_prediction.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Client</t>
+  </si>
+  <si>
+    <t>probability</t>
   </si>
   <si>
     <t>cc_revenue_prediction</t>
@@ -377,362 +380,2683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>1076</v>
+        <v>529</v>
       </c>
       <c r="B2">
-        <v>5.083896280489533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.93</v>
+      </c>
+      <c r="C2">
+        <v>4.482575798519639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>145</v>
+        <v>478</v>
       </c>
       <c r="B3">
-        <v>5.069480557373945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.93</v>
+      </c>
+      <c r="C3">
+        <v>4.400067571913662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>587</v>
+        <v>83</v>
       </c>
       <c r="B4">
-        <v>5.03357347844141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.92</v>
+      </c>
+      <c r="C4">
+        <v>5.150000388103571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="B5">
-        <v>4.954117228201584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.92</v>
+      </c>
+      <c r="C5">
+        <v>4.094715326474522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>851</v>
+        <v>938</v>
       </c>
       <c r="B6">
-        <v>4.878484776152434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.92</v>
+      </c>
+      <c r="C6">
+        <v>5.000517317159092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>1487</v>
+        <v>1413</v>
       </c>
       <c r="B7">
-        <v>4.864772847414068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.91</v>
+      </c>
+      <c r="C7">
+        <v>5.087236470286568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>382</v>
+        <v>1406</v>
       </c>
       <c r="B8">
-        <v>4.833080678814946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.91</v>
+      </c>
+      <c r="C8">
+        <v>3.822675525628645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>535</v>
+        <v>1362</v>
       </c>
       <c r="B9">
-        <v>4.821776497937236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.91</v>
+      </c>
+      <c r="C9">
+        <v>4.148265459529533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>340</v>
+        <v>1170</v>
       </c>
       <c r="B10">
-        <v>4.818942910292415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.91</v>
+      </c>
+      <c r="C10">
+        <v>4.741387450662478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>104</v>
+        <v>634</v>
       </c>
       <c r="B11">
-        <v>4.662943831600023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.9</v>
+      </c>
+      <c r="C11">
+        <v>4.873120132909859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>886</v>
+        <v>963</v>
       </c>
       <c r="B12">
-        <v>4.519551040805647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.9</v>
+      </c>
+      <c r="C12">
+        <v>4.801340671918497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>592</v>
+        <v>1522</v>
       </c>
       <c r="B13">
-        <v>4.496897410823667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.9</v>
+      </c>
+      <c r="C13">
+        <v>4.802243132055693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>84</v>
+        <v>492</v>
       </c>
       <c r="B14">
-        <v>4.494481530172193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.9</v>
+      </c>
+      <c r="C14">
+        <v>4.401782542829237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>541</v>
+        <v>908</v>
       </c>
       <c r="B15">
-        <v>4.494384726459262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.9</v>
+      </c>
+      <c r="C15">
+        <v>3.868912900950264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>701</v>
+        <v>1408</v>
       </c>
       <c r="B16">
-        <v>4.486715804352084</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.9</v>
+      </c>
+      <c r="C16">
+        <v>4.186716153435418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>1331</v>
+        <v>1303</v>
       </c>
       <c r="B17">
-        <v>4.486113122823072</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.89</v>
+      </c>
+      <c r="C17">
+        <v>4.413126221043902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
-        <v>870</v>
+        <v>601</v>
       </c>
       <c r="B18">
-        <v>4.486071800888204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.89</v>
+      </c>
+      <c r="C18">
+        <v>5.074415804175602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
-        <v>1380</v>
+        <v>694</v>
       </c>
       <c r="B19">
-        <v>4.47472428033336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.89</v>
+      </c>
+      <c r="C19">
+        <v>4.560916712612487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
-        <v>1262</v>
+        <v>465</v>
       </c>
       <c r="B20">
-        <v>4.459081680184702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.89</v>
+      </c>
+      <c r="C20">
+        <v>4.271479762942134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
-        <v>1241</v>
+        <v>1571</v>
       </c>
       <c r="B21">
-        <v>4.451809283133094</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.89</v>
+      </c>
+      <c r="C21">
+        <v>4.461576114028791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
-        <v>1227</v>
+        <v>372</v>
       </c>
       <c r="B22">
-        <v>4.451450680951634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.88</v>
+      </c>
+      <c r="C22">
+        <v>4.303363541870866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="B23">
-        <v>4.451009987561082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.88</v>
+      </c>
+      <c r="C23">
+        <v>4.376756459006363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
-        <v>1280</v>
+        <v>1175</v>
       </c>
       <c r="B24">
-        <v>4.450444766081271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.88</v>
+      </c>
+      <c r="C24">
+        <v>4.413752047622205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
-        <v>180</v>
+        <v>449</v>
       </c>
       <c r="B25">
-        <v>4.449883453255512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.88</v>
+      </c>
+      <c r="C25">
+        <v>4.226393290298111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="B26">
-        <v>4.440961085680205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.88</v>
+      </c>
+      <c r="C26">
+        <v>3.139133648481431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
-        <v>1222</v>
+        <v>1368</v>
       </c>
       <c r="B27">
-        <v>4.437888488830675</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.88</v>
+      </c>
+      <c r="C27">
+        <v>3.995970494402882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
-        <v>931</v>
+        <v>420</v>
       </c>
       <c r="B28">
-        <v>4.433599402511964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.87</v>
+      </c>
+      <c r="C28">
+        <v>4.921248517272653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
-        <v>1129</v>
+        <v>569</v>
       </c>
       <c r="B29">
-        <v>4.42488880868709</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C29">
+        <v>4.488768067978707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
-        <v>1419</v>
+        <v>942</v>
       </c>
       <c r="B30">
-        <v>4.424585361180632</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C30">
+        <v>4.288941659216276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
-        <v>1588</v>
+        <v>1178</v>
       </c>
       <c r="B31">
-        <v>4.422880684587318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C31">
+        <v>4.643958060675185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
-        <v>1047</v>
+        <v>45</v>
       </c>
       <c r="B32">
-        <v>4.415307034159912</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C32">
+        <v>4.617709053095462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
-        <v>978</v>
+        <v>782</v>
       </c>
       <c r="B33">
-        <v>4.381465756096736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C33">
+        <v>2.282418891655496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
-        <v>516</v>
+        <v>682</v>
       </c>
       <c r="B34">
-        <v>4.376102365890469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C34">
+        <v>4.322134820421644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
-        <v>19</v>
+        <v>1330</v>
       </c>
       <c r="B35">
-        <v>4.354995566329106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C35">
+        <v>4.360991931590745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="B36">
-        <v>4.308555897117612</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C36">
+        <v>4.600302332106295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
-        <v>1365</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>4.271479199903851</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C37">
+        <v>4.346972989863089</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
-        <v>760</v>
+        <v>455</v>
       </c>
       <c r="B38">
-        <v>4.230901877110963</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C38">
+        <v>4.289840604618078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
-        <v>727</v>
+        <v>68</v>
       </c>
       <c r="B39">
-        <v>4.189189243852901</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C39">
+        <v>4.40691823037222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
-        <v>633</v>
+        <v>1151</v>
       </c>
       <c r="B40">
-        <v>4.000732641605872</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C40">
+        <v>4.280232671110695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>3.958073133457978</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C41">
+        <v>4.472280423862319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
-        <v>197</v>
+        <v>334</v>
       </c>
       <c r="B42">
-        <v>3.915590222202741</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C42">
+        <v>4.461777165635375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="B43">
-        <v>3.905889925873699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C43">
+        <v>4.428268047567341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
-        <v>1410</v>
+        <v>1103</v>
       </c>
       <c r="B44">
-        <v>3.885337029718573</v>
+        <v>0.84</v>
+      </c>
+      <c r="C44">
+        <v>4.376727272369248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1030</v>
+      </c>
+      <c r="B45">
+        <v>0.84</v>
+      </c>
+      <c r="C45">
+        <v>4.373582027994507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>252</v>
+      </c>
+      <c r="B46">
+        <v>0.84</v>
+      </c>
+      <c r="C46">
+        <v>4.287337125798885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>705</v>
+      </c>
+      <c r="B47">
+        <v>0.84</v>
+      </c>
+      <c r="C47">
+        <v>4.414856033497919</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>219</v>
+      </c>
+      <c r="B48">
+        <v>0.84</v>
+      </c>
+      <c r="C48">
+        <v>4.186594853671509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>0.84</v>
+      </c>
+      <c r="C49">
+        <v>3.707248551664772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1396</v>
+      </c>
+      <c r="B50">
+        <v>0.83</v>
+      </c>
+      <c r="C50">
+        <v>4.158930697711086</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>575</v>
+      </c>
+      <c r="B51">
+        <v>0.83</v>
+      </c>
+      <c r="C51">
+        <v>4.338049840963037</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>658</v>
+      </c>
+      <c r="B52">
+        <v>0.83</v>
+      </c>
+      <c r="C52">
+        <v>4.431761067356184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1415</v>
+      </c>
+      <c r="B53">
+        <v>0.83</v>
+      </c>
+      <c r="C53">
+        <v>4.160109356580105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>171</v>
+      </c>
+      <c r="B54">
+        <v>0.83</v>
+      </c>
+      <c r="C54">
+        <v>4.404439751119968</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>1348</v>
+      </c>
+      <c r="B55">
+        <v>0.82</v>
+      </c>
+      <c r="C55">
+        <v>4.376094243654708</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>1538</v>
+      </c>
+      <c r="B56">
+        <v>0.82</v>
+      </c>
+      <c r="C56">
+        <v>3.767663151824117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>952</v>
+      </c>
+      <c r="B57">
+        <v>0.82</v>
+      </c>
+      <c r="C57">
+        <v>4.477088625456574</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>448</v>
+      </c>
+      <c r="B58">
+        <v>0.82</v>
+      </c>
+      <c r="C58">
+        <v>4.407582348341857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>721</v>
+      </c>
+      <c r="B59">
+        <v>0.82</v>
+      </c>
+      <c r="C59">
+        <v>4.279849104606041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>1267</v>
+      </c>
+      <c r="B60">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C60">
+        <v>4.351468205200243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>613</v>
+      </c>
+      <c r="B61">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C61">
+        <v>4.49412211598709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>895</v>
+      </c>
+      <c r="B62">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C62">
+        <v>4.2811928883702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>1417</v>
+      </c>
+      <c r="B63">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C63">
+        <v>4.411789504146236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>591</v>
+      </c>
+      <c r="B64">
+        <v>0.8</v>
+      </c>
+      <c r="C64">
+        <v>4.485824529235314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>37</v>
+      </c>
+      <c r="B65">
+        <v>0.8</v>
+      </c>
+      <c r="C65">
+        <v>4.34201258604614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>1549</v>
+      </c>
+      <c r="B66">
+        <v>0.8</v>
+      </c>
+      <c r="C66">
+        <v>4.656232625653354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>525</v>
+      </c>
+      <c r="B67">
+        <v>0.8</v>
+      </c>
+      <c r="C67">
+        <v>3.54069237716076</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>365</v>
+      </c>
+      <c r="B68">
+        <v>0.8</v>
+      </c>
+      <c r="C68">
+        <v>4.477523618383382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>982</v>
+      </c>
+      <c r="B69">
+        <v>0.8</v>
+      </c>
+      <c r="C69">
+        <v>4.38712630312497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>415</v>
+      </c>
+      <c r="B70">
+        <v>0.8</v>
+      </c>
+      <c r="C70">
+        <v>4.484437172736826</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>282</v>
+      </c>
+      <c r="B71">
+        <v>0.8</v>
+      </c>
+      <c r="C71">
+        <v>4.331780087732378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>1545</v>
+      </c>
+      <c r="B72">
+        <v>0.79</v>
+      </c>
+      <c r="C72">
+        <v>4.456725144734256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>639</v>
+      </c>
+      <c r="B73">
+        <v>0.79</v>
+      </c>
+      <c r="C73">
+        <v>4.43712197077972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>946</v>
+      </c>
+      <c r="B74">
+        <v>0.79</v>
+      </c>
+      <c r="C74">
+        <v>4.428863135498844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>1246</v>
+      </c>
+      <c r="B75">
+        <v>0.79</v>
+      </c>
+      <c r="C75">
+        <v>4.43291231182769</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>867</v>
+      </c>
+      <c r="B76">
+        <v>0.79</v>
+      </c>
+      <c r="C76">
+        <v>4.478459344874759</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>1367</v>
+      </c>
+      <c r="B77">
+        <v>0.79</v>
+      </c>
+      <c r="C77">
+        <v>4.550652241516529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>1154</v>
+      </c>
+      <c r="B78">
+        <v>0.79</v>
+      </c>
+      <c r="C78">
+        <v>4.47075141122393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>236</v>
+      </c>
+      <c r="B79">
+        <v>0.79</v>
+      </c>
+      <c r="C79">
+        <v>4.451517465171771</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>734</v>
+      </c>
+      <c r="B80">
+        <v>0.79</v>
+      </c>
+      <c r="C80">
+        <v>4.600967730981066</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>809</v>
+      </c>
+      <c r="B81">
+        <v>0.78</v>
+      </c>
+      <c r="C81">
+        <v>4.387460161420126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>1043</v>
+      </c>
+      <c r="B82">
+        <v>0.78</v>
+      </c>
+      <c r="C82">
+        <v>4.278165274591475</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>46</v>
+      </c>
+      <c r="B83">
+        <v>0.78</v>
+      </c>
+      <c r="C83">
+        <v>4.182067996692716</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>1001</v>
+      </c>
+      <c r="B84">
+        <v>0.78</v>
+      </c>
+      <c r="C84">
+        <v>4.425321600181345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>285</v>
+      </c>
+      <c r="B85">
+        <v>0.78</v>
+      </c>
+      <c r="C85">
+        <v>4.461474270485977</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>900</v>
+      </c>
+      <c r="B86">
+        <v>0.78</v>
+      </c>
+      <c r="C86">
+        <v>4.491204917510677</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>1041</v>
+      </c>
+      <c r="B87">
+        <v>0.78</v>
+      </c>
+      <c r="C87">
+        <v>3.492428718238411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1159</v>
+      </c>
+      <c r="B88">
+        <v>0.77</v>
+      </c>
+      <c r="C88">
+        <v>4.233255749738862</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>1335</v>
+      </c>
+      <c r="B89">
+        <v>0.77</v>
+      </c>
+      <c r="C89">
+        <v>4.398701383694981</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>1040</v>
+      </c>
+      <c r="B90">
+        <v>0.77</v>
+      </c>
+      <c r="C90">
+        <v>4.121464157906278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>793</v>
+      </c>
+      <c r="B91">
+        <v>0.77</v>
+      </c>
+      <c r="C91">
+        <v>4.346360821036063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>20</v>
+      </c>
+      <c r="B92">
+        <v>0.77</v>
+      </c>
+      <c r="C92">
+        <v>4.212470864910707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>306</v>
+      </c>
+      <c r="B93">
+        <v>0.77</v>
+      </c>
+      <c r="C93">
+        <v>4.3816528317395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>33</v>
+      </c>
+      <c r="B94">
+        <v>0.77</v>
+      </c>
+      <c r="C94">
+        <v>4.421625100522271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>48</v>
+      </c>
+      <c r="B95">
+        <v>0.76</v>
+      </c>
+      <c r="C95">
+        <v>2.231652244990141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>1384</v>
+      </c>
+      <c r="B96">
+        <v>0.76</v>
+      </c>
+      <c r="C96">
+        <v>4.407056426022778</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>203</v>
+      </c>
+      <c r="B97">
+        <v>0.76</v>
+      </c>
+      <c r="C97">
+        <v>4.449356037635219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>966</v>
+      </c>
+      <c r="B98">
+        <v>0.76</v>
+      </c>
+      <c r="C98">
+        <v>4.49197160211444</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>184</v>
+      </c>
+      <c r="B99">
+        <v>0.76</v>
+      </c>
+      <c r="C99">
+        <v>4.487115368497206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>1094</v>
+      </c>
+      <c r="B100">
+        <v>0.76</v>
+      </c>
+      <c r="C100">
+        <v>4.430037937969209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>924</v>
+      </c>
+      <c r="B101">
+        <v>0.76</v>
+      </c>
+      <c r="C101">
+        <v>4.935058820316113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>1471</v>
+      </c>
+      <c r="B102">
+        <v>0.76</v>
+      </c>
+      <c r="C102">
+        <v>4.299171159061393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>1293</v>
+      </c>
+      <c r="B103">
+        <v>0.76</v>
+      </c>
+      <c r="C103">
+        <v>4.107349124212128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>714</v>
+      </c>
+      <c r="B104">
+        <v>0.76</v>
+      </c>
+      <c r="C104">
+        <v>4.380372369472358</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>1213</v>
+      </c>
+      <c r="B105">
+        <v>0.76</v>
+      </c>
+      <c r="C105">
+        <v>4.351078223747722</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>271</v>
+      </c>
+      <c r="B106">
+        <v>0.76</v>
+      </c>
+      <c r="C106">
+        <v>4.415355151358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>617</v>
+      </c>
+      <c r="B107">
+        <v>0.76</v>
+      </c>
+      <c r="C107">
+        <v>4.470609688916897</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>1277</v>
+      </c>
+      <c r="B108">
+        <v>0.76</v>
+      </c>
+      <c r="C108">
+        <v>4.153295382086875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>44</v>
+      </c>
+      <c r="B109">
+        <v>0.75</v>
+      </c>
+      <c r="C109">
+        <v>4.47511666956434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>914</v>
+      </c>
+      <c r="B110">
+        <v>0.75</v>
+      </c>
+      <c r="C110">
+        <v>3.921003907742104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>1500</v>
+      </c>
+      <c r="B111">
+        <v>0.75</v>
+      </c>
+      <c r="C111">
+        <v>4.493838489860189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>351</v>
+      </c>
+      <c r="B112">
+        <v>0.75</v>
+      </c>
+      <c r="C112">
+        <v>4.347563310788739</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>739</v>
+      </c>
+      <c r="B113">
+        <v>0.75</v>
+      </c>
+      <c r="C113">
+        <v>4.451576452937631</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>1573</v>
+      </c>
+      <c r="B114">
+        <v>0.75</v>
+      </c>
+      <c r="C114">
+        <v>4.289297418683921</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>452</v>
+      </c>
+      <c r="B115">
+        <v>0.75</v>
+      </c>
+      <c r="C115">
+        <v>4.471597573057859</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>679</v>
+      </c>
+      <c r="B116">
+        <v>0.75</v>
+      </c>
+      <c r="C116">
+        <v>4.292411646062336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>926</v>
+      </c>
+      <c r="B117">
+        <v>0.74</v>
+      </c>
+      <c r="C117">
+        <v>4.371299927443481</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>1554</v>
+      </c>
+      <c r="B118">
+        <v>0.74</v>
+      </c>
+      <c r="C118">
+        <v>4.441178683204176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>275</v>
+      </c>
+      <c r="B119">
+        <v>0.74</v>
+      </c>
+      <c r="C119">
+        <v>4.42822020390885</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>479</v>
+      </c>
+      <c r="B120">
+        <v>0.74</v>
+      </c>
+      <c r="C120">
+        <v>4.364842957366053</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>323</v>
+      </c>
+      <c r="B121">
+        <v>0.74</v>
+      </c>
+      <c r="C121">
+        <v>4.409727882319138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>801</v>
+      </c>
+      <c r="B122">
+        <v>0.74</v>
+      </c>
+      <c r="C122">
+        <v>4.478814015137607</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>1302</v>
+      </c>
+      <c r="B123">
+        <v>0.74</v>
+      </c>
+      <c r="C123">
+        <v>4.393861216969619</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>564</v>
+      </c>
+      <c r="B124">
+        <v>0.74</v>
+      </c>
+      <c r="C124">
+        <v>4.481326328312884</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>1205</v>
+      </c>
+      <c r="B125">
+        <v>0.74</v>
+      </c>
+      <c r="C125">
+        <v>4.462519270494333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>194</v>
+      </c>
+      <c r="B126">
+        <v>0.74</v>
+      </c>
+      <c r="C126">
+        <v>4.474416099296513</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>520</v>
+      </c>
+      <c r="B127">
+        <v>0.74</v>
+      </c>
+      <c r="C127">
+        <v>3.698105205650209</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>729</v>
+      </c>
+      <c r="B128">
+        <v>0.74</v>
+      </c>
+      <c r="C128">
+        <v>4.219429781029942</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>542</v>
+      </c>
+      <c r="B129">
+        <v>0.74</v>
+      </c>
+      <c r="C129">
+        <v>4.471981642601722</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>709</v>
+      </c>
+      <c r="B130">
+        <v>0.74</v>
+      </c>
+      <c r="C130">
+        <v>4.073621078122481</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>1505</v>
+      </c>
+      <c r="B131">
+        <v>0.74</v>
+      </c>
+      <c r="C131">
+        <v>4.379862562688208</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>980</v>
+      </c>
+      <c r="B132">
+        <v>0.73</v>
+      </c>
+      <c r="C132">
+        <v>4.468053798569047</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>277</v>
+      </c>
+      <c r="B133">
+        <v>0.73</v>
+      </c>
+      <c r="C133">
+        <v>4.487092732775223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>961</v>
+      </c>
+      <c r="B134">
+        <v>0.73</v>
+      </c>
+      <c r="C134">
+        <v>4.483659102069089</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>614</v>
+      </c>
+      <c r="B135">
+        <v>0.73</v>
+      </c>
+      <c r="C135">
+        <v>3.851629923855493</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>384</v>
+      </c>
+      <c r="B136">
+        <v>0.73</v>
+      </c>
+      <c r="C136">
+        <v>4.475826912835424</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>1144</v>
+      </c>
+      <c r="B137">
+        <v>0.73</v>
+      </c>
+      <c r="C137">
+        <v>4.441485394843031</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>1479</v>
+      </c>
+      <c r="B138">
+        <v>0.73</v>
+      </c>
+      <c r="C138">
+        <v>4.416374701121907</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>1255</v>
+      </c>
+      <c r="B139">
+        <v>0.73</v>
+      </c>
+      <c r="C139">
+        <v>4.457824228361508</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>408</v>
+      </c>
+      <c r="B140">
+        <v>0.73</v>
+      </c>
+      <c r="C140">
+        <v>4.055982695429999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>1149</v>
+      </c>
+      <c r="B141">
+        <v>0.73</v>
+      </c>
+      <c r="C141">
+        <v>4.413904174270683</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>127</v>
+      </c>
+      <c r="B142">
+        <v>0.73</v>
+      </c>
+      <c r="C142">
+        <v>4.476554925511054</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>1224</v>
+      </c>
+      <c r="B143">
+        <v>0.73</v>
+      </c>
+      <c r="C143">
+        <v>4.057430163177006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>1364</v>
+      </c>
+      <c r="B144">
+        <v>0.73</v>
+      </c>
+      <c r="C144">
+        <v>4.301307545655613</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>73</v>
+      </c>
+      <c r="B145">
+        <v>0.73</v>
+      </c>
+      <c r="C145">
+        <v>2.415936528459277</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>754</v>
+      </c>
+      <c r="B146">
+        <v>0.73</v>
+      </c>
+      <c r="C146">
+        <v>4.480588262461989</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>1383</v>
+      </c>
+      <c r="B147">
+        <v>0.73</v>
+      </c>
+      <c r="C147">
+        <v>4.383384311589167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>730</v>
+      </c>
+      <c r="B148">
+        <v>0.73</v>
+      </c>
+      <c r="C148">
+        <v>4.461717339613575</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>1322</v>
+      </c>
+      <c r="B149">
+        <v>0.72</v>
+      </c>
+      <c r="C149">
+        <v>4.43142407876874</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>1165</v>
+      </c>
+      <c r="B150">
+        <v>0.72</v>
+      </c>
+      <c r="C150">
+        <v>4.44060313700821</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>1052</v>
+      </c>
+      <c r="B151">
+        <v>0.72</v>
+      </c>
+      <c r="C151">
+        <v>4.493557607198667</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>1266</v>
+      </c>
+      <c r="B152">
+        <v>0.72</v>
+      </c>
+      <c r="C152">
+        <v>4.417327012361116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>1232</v>
+      </c>
+      <c r="B153">
+        <v>0.72</v>
+      </c>
+      <c r="C153">
+        <v>4.400696237274417</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>1214</v>
+      </c>
+      <c r="B154">
+        <v>0.72</v>
+      </c>
+      <c r="C154">
+        <v>4.440044430434475</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>1287</v>
+      </c>
+      <c r="B155">
+        <v>0.72</v>
+      </c>
+      <c r="C155">
+        <v>4.268044122915128</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>438</v>
+      </c>
+      <c r="B156">
+        <v>0.72</v>
+      </c>
+      <c r="C156">
+        <v>4.426186158565999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>850</v>
+      </c>
+      <c r="B157">
+        <v>0.72</v>
+      </c>
+      <c r="C157">
+        <v>4.39950179696289</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>964</v>
+      </c>
+      <c r="B158">
+        <v>0.72</v>
+      </c>
+      <c r="C158">
+        <v>4.268111612474298</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>585</v>
+      </c>
+      <c r="B159">
+        <v>0.72</v>
+      </c>
+      <c r="C159">
+        <v>4.401049312482225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>1404</v>
+      </c>
+      <c r="B160">
+        <v>0.72</v>
+      </c>
+      <c r="C160">
+        <v>4.48596085134323</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>518</v>
+      </c>
+      <c r="B161">
+        <v>0.72</v>
+      </c>
+      <c r="C161">
+        <v>4.444701637164295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>563</v>
+      </c>
+      <c r="B162">
+        <v>0.72</v>
+      </c>
+      <c r="C162">
+        <v>4.41621931582204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>927</v>
+      </c>
+      <c r="B163">
+        <v>0.71</v>
+      </c>
+      <c r="C163">
+        <v>4.299959319098258</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>1027</v>
+      </c>
+      <c r="B164">
+        <v>0.71</v>
+      </c>
+      <c r="C164">
+        <v>4.439884146845103</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>450</v>
+      </c>
+      <c r="B165">
+        <v>0.71</v>
+      </c>
+      <c r="C165">
+        <v>4.465067872168675</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>833</v>
+      </c>
+      <c r="B166">
+        <v>0.71</v>
+      </c>
+      <c r="C166">
+        <v>4.480151623007806</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>1469</v>
+      </c>
+      <c r="B167">
+        <v>0.71</v>
+      </c>
+      <c r="C167">
+        <v>4.306839702932405</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>1108</v>
+      </c>
+      <c r="B168">
+        <v>0.71</v>
+      </c>
+      <c r="C168">
+        <v>4.477884453447168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>1253</v>
+      </c>
+      <c r="B169">
+        <v>0.71</v>
+      </c>
+      <c r="C169">
+        <v>4.461715470861304</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>1060</v>
+      </c>
+      <c r="B170">
+        <v>0.71</v>
+      </c>
+      <c r="C170">
+        <v>4.479866752970172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>648</v>
+      </c>
+      <c r="B171">
+        <v>0.71</v>
+      </c>
+      <c r="C171">
+        <v>4.326049415560957</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>1014</v>
+      </c>
+      <c r="B172">
+        <v>0.71</v>
+      </c>
+      <c r="C172">
+        <v>4.38559081657</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>1436</v>
+      </c>
+      <c r="B173">
+        <v>0.7</v>
+      </c>
+      <c r="C173">
+        <v>4.453192945259541</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>1167</v>
+      </c>
+      <c r="B174">
+        <v>0.7</v>
+      </c>
+      <c r="C174">
+        <v>4.353596023839915</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>644</v>
+      </c>
+      <c r="B175">
+        <v>0.7</v>
+      </c>
+      <c r="C175">
+        <v>4.493506793236405</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>1029</v>
+      </c>
+      <c r="B176">
+        <v>0.7</v>
+      </c>
+      <c r="C176">
+        <v>4.464565069768851</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>1163</v>
+      </c>
+      <c r="B177">
+        <v>0.7</v>
+      </c>
+      <c r="C177">
+        <v>4.422946402125625</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>629</v>
+      </c>
+      <c r="B178">
+        <v>0.7</v>
+      </c>
+      <c r="C178">
+        <v>3.485813401479883</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>137</v>
+      </c>
+      <c r="B179">
+        <v>0.7</v>
+      </c>
+      <c r="C179">
+        <v>4.456603970779342</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>248</v>
+      </c>
+      <c r="B180">
+        <v>0.7</v>
+      </c>
+      <c r="C180">
+        <v>4.469175027784078</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>103</v>
+      </c>
+      <c r="B181">
+        <v>0.7</v>
+      </c>
+      <c r="C181">
+        <v>4.493911023954317</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>1519</v>
+      </c>
+      <c r="B182">
+        <v>0.7</v>
+      </c>
+      <c r="C182">
+        <v>4.448609326353296</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>628</v>
+      </c>
+      <c r="B183">
+        <v>0.7</v>
+      </c>
+      <c r="C183">
+        <v>4.484442560697598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>1355</v>
+      </c>
+      <c r="B184">
+        <v>0.7</v>
+      </c>
+      <c r="C184">
+        <v>4.471976521670427</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>96</v>
+      </c>
+      <c r="B185">
+        <v>0.7</v>
+      </c>
+      <c r="C185">
+        <v>4.345577593680587</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>388</v>
+      </c>
+      <c r="B186">
+        <v>0.7</v>
+      </c>
+      <c r="C186">
+        <v>4.230346942473064</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>1534</v>
+      </c>
+      <c r="B187">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C187">
+        <v>4.217281966314631</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>554</v>
+      </c>
+      <c r="B188">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C188">
+        <v>4.441313552835036</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>1369</v>
+      </c>
+      <c r="B189">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C189">
+        <v>4.094588040151923</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>1456</v>
+      </c>
+      <c r="B190">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C190">
+        <v>4.448794388631278</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>898</v>
+      </c>
+      <c r="B191">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C191">
+        <v>4.447999574255091</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>1425</v>
+      </c>
+      <c r="B192">
+        <v>0.68</v>
+      </c>
+      <c r="C192">
+        <v>4.434111078587788</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>1309</v>
+      </c>
+      <c r="B193">
+        <v>0.68</v>
+      </c>
+      <c r="C193">
+        <v>4.448227154294981</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>1306</v>
+      </c>
+      <c r="B194">
+        <v>0.68</v>
+      </c>
+      <c r="C194">
+        <v>4.419116443984144</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>1600</v>
+      </c>
+      <c r="B195">
+        <v>0.68</v>
+      </c>
+      <c r="C195">
+        <v>4.159680643624103</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>428</v>
+      </c>
+      <c r="B196">
+        <v>0.68</v>
+      </c>
+      <c r="C196">
+        <v>4.397912995531661</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>1042</v>
+      </c>
+      <c r="B197">
+        <v>0.68</v>
+      </c>
+      <c r="C197">
+        <v>4.309818865879259</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>836</v>
+      </c>
+      <c r="B198">
+        <v>0.68</v>
+      </c>
+      <c r="C198">
+        <v>4.489625039523456</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>649</v>
+      </c>
+      <c r="B199">
+        <v>0.68</v>
+      </c>
+      <c r="C199">
+        <v>4.249035961436443</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>618</v>
+      </c>
+      <c r="B200">
+        <v>0.68</v>
+      </c>
+      <c r="C200">
+        <v>4.423207680792961</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>568</v>
+      </c>
+      <c r="B201">
+        <v>0.68</v>
+      </c>
+      <c r="C201">
+        <v>4.490101025953988</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>519</v>
+      </c>
+      <c r="B202">
+        <v>0.68</v>
+      </c>
+      <c r="C202">
+        <v>4.454921159392445</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>704</v>
+      </c>
+      <c r="B203">
+        <v>0.68</v>
+      </c>
+      <c r="C203">
+        <v>4.469824907238036</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>692</v>
+      </c>
+      <c r="B204">
+        <v>0.68</v>
+      </c>
+      <c r="C204">
+        <v>4.415489333982582</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>1087</v>
+      </c>
+      <c r="B205">
+        <v>0.68</v>
+      </c>
+      <c r="C205">
+        <v>4.431843680004127</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>1155</v>
+      </c>
+      <c r="B206">
+        <v>0.68</v>
+      </c>
+      <c r="C206">
+        <v>4.485405111352107</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>284</v>
+      </c>
+      <c r="B207">
+        <v>0.68</v>
+      </c>
+      <c r="C207">
+        <v>4.362036467328455</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>22</v>
+      </c>
+      <c r="B208">
+        <v>0.68</v>
+      </c>
+      <c r="C208">
+        <v>4.241449706795152</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>291</v>
+      </c>
+      <c r="B209">
+        <v>0.67</v>
+      </c>
+      <c r="C209">
+        <v>4.439692233443238</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>131</v>
+      </c>
+      <c r="B210">
+        <v>0.67</v>
+      </c>
+      <c r="C210">
+        <v>4.488168677347426</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>1199</v>
+      </c>
+      <c r="B211">
+        <v>0.67</v>
+      </c>
+      <c r="C211">
+        <v>4.494441609411723</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>672</v>
+      </c>
+      <c r="B212">
+        <v>0.67</v>
+      </c>
+      <c r="C212">
+        <v>4.471190003842702</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>1273</v>
+      </c>
+      <c r="B213">
+        <v>0.67</v>
+      </c>
+      <c r="C213">
+        <v>4.421070999790077</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>666</v>
+      </c>
+      <c r="B214">
+        <v>0.67</v>
+      </c>
+      <c r="C214">
+        <v>4.070142683134621</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>905</v>
+      </c>
+      <c r="B215">
+        <v>0.67</v>
+      </c>
+      <c r="C215">
+        <v>4.431519044624804</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>921</v>
+      </c>
+      <c r="B216">
+        <v>0.67</v>
+      </c>
+      <c r="C216">
+        <v>4.456907854091309</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>890</v>
+      </c>
+      <c r="B217">
+        <v>0.67</v>
+      </c>
+      <c r="C217">
+        <v>4.150067429984439</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>475</v>
+      </c>
+      <c r="B218">
+        <v>0.66</v>
+      </c>
+      <c r="C218">
+        <v>4.279641189023627</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>1160</v>
+      </c>
+      <c r="B219">
+        <v>0.66</v>
+      </c>
+      <c r="C219">
+        <v>4.410824706291389</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>317</v>
+      </c>
+      <c r="B220">
+        <v>0.66</v>
+      </c>
+      <c r="C220">
+        <v>4.477161074533955</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>1461</v>
+      </c>
+      <c r="B221">
+        <v>0.66</v>
+      </c>
+      <c r="C221">
+        <v>4.42318630724466</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>827</v>
+      </c>
+      <c r="B222">
+        <v>0.66</v>
+      </c>
+      <c r="C222">
+        <v>4.378312291094667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>1191</v>
+      </c>
+      <c r="B223">
+        <v>0.65</v>
+      </c>
+      <c r="C223">
+        <v>4.435572552356385</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>762</v>
+      </c>
+      <c r="B224">
+        <v>0.65</v>
+      </c>
+      <c r="C224">
+        <v>4.45584823251682</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>969</v>
+      </c>
+      <c r="B225">
+        <v>0.65</v>
+      </c>
+      <c r="C225">
+        <v>4.400692668205265</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>873</v>
+      </c>
+      <c r="B226">
+        <v>0.65</v>
+      </c>
+      <c r="C226">
+        <v>4.539850093414399</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>1141</v>
+      </c>
+      <c r="B227">
+        <v>0.65</v>
+      </c>
+      <c r="C227">
+        <v>4.483332357030209</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>1169</v>
+      </c>
+      <c r="B228">
+        <v>0.65</v>
+      </c>
+      <c r="C228">
+        <v>4.430551415374274</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>1346</v>
+      </c>
+      <c r="B229">
+        <v>0.64</v>
+      </c>
+      <c r="C229">
+        <v>4.490090521067318</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>840</v>
+      </c>
+      <c r="B230">
+        <v>0.64</v>
+      </c>
+      <c r="C230">
+        <v>4.417994694192619</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>497</v>
+      </c>
+      <c r="B231">
+        <v>0.64</v>
+      </c>
+      <c r="C231">
+        <v>4.489716460816356</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>1568</v>
+      </c>
+      <c r="B232">
+        <v>0.64</v>
+      </c>
+      <c r="C232">
+        <v>4.480388810627402</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>93</v>
+      </c>
+      <c r="B233">
+        <v>0.64</v>
+      </c>
+      <c r="C233">
+        <v>4.285237180444016</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>0.64</v>
+      </c>
+      <c r="C234">
+        <v>4.380986218404935</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>576</v>
+      </c>
+      <c r="B235">
+        <v>0.62</v>
+      </c>
+      <c r="C235">
+        <v>4.478858186790393</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>122</v>
+      </c>
+      <c r="B236">
+        <v>0.62</v>
+      </c>
+      <c r="C236">
+        <v>4.428935438048131</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>49</v>
+      </c>
+      <c r="B237">
+        <v>0.62</v>
+      </c>
+      <c r="C237">
+        <v>4.479391987959461</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>686</v>
+      </c>
+      <c r="B238">
+        <v>0.61</v>
+      </c>
+      <c r="C238">
+        <v>4.451986899753254</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>1399</v>
+      </c>
+      <c r="B239">
+        <v>0.61</v>
+      </c>
+      <c r="C239">
+        <v>4.374301517646054</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>741</v>
+      </c>
+      <c r="B240">
+        <v>0.61</v>
+      </c>
+      <c r="C240">
+        <v>4.494058758611696</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>395</v>
+      </c>
+      <c r="B241">
+        <v>0.6</v>
+      </c>
+      <c r="C241">
+        <v>4.459147769880208</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>412</v>
+      </c>
+      <c r="B242">
+        <v>0.57</v>
+      </c>
+      <c r="C242">
+        <v>4.352334973046751</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>546</v>
+      </c>
+      <c r="B243">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C243">
+        <v>4.437643149642059</v>
       </c>
     </row>
   </sheetData>
